--- a/Stock_Predictor/symbols_names_151_k.xlsx
+++ b/Stock_Predictor/symbols_names_151_k.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/test/Desktop/Pyhton_Projects/Stock_Predictor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF0E641-76A7-494F-9530-6B02002A284B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4535B2-EF4B-6640-953F-489AAB8306AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="1000" windowWidth="25040" windowHeight="13560" xr2:uid="{FBA05F7B-48D3-B74C-907D-64CCE3E26763}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Names</t>
   </si>
   <si>
-    <t>CPIYAU.M+A291:B316</t>
-  </si>
-  <si>
     <t>AUSTRALIA CPI R</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>USA CPI R</t>
+  </si>
+  <si>
+    <t>CPIYAU.M</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,242 +590,242 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
